--- a/biology/Médecine/Matériovigilance/Matériovigilance.xlsx
+++ b/biology/Médecine/Matériovigilance/Matériovigilance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mat%C3%A9riovigilance</t>
+          <t>Matériovigilance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La matériovigilance a pour objet la surveillance des incidents pouvant survenir lors de l'utilisation d'un dispositif médical (DM), la surveillance des incidents ou des risques d'incidents résultant de l'utilisation des dispositifs médicaux après leur mise sur le marché, c’est-à-dire une fois que ces dispositifs médicaux ont franchi la porte des établissements de santé.
 Son nom provient de l'époque où les dispositifs médicaux étaient appelés matériels médicaux, par adaptation directe du terme anglais[réf. nécessaire].
